--- a/02_programme_task/xlsx_out/11.1 Kings.xlsx
+++ b/02_programme_task/xlsx_out/11.1 Kings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1 Kings 1:1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>donijah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>1 Kings 1:9</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Adonijah sacrificed sheep, oxen, and fattened cattle by t</t>
         </is>
